--- a/maxim/all4.xlsx
+++ b/maxim/all4.xlsx
@@ -150,465 +150,324 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$101</c:f>
+              <c:f>Лист1!$A$53:$A$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$52</c:f>
+              <c:f>Лист1!$B$53:$B$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.51600000000307E-6</c:v>
+                  <c:v>3.9931709999997981E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.229000000000149E-6</c:v>
+                  <c:v>4.2078790000002189E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6250000000039888E-6</c:v>
+                  <c:v>4.4852069999998887E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3450000000040443E-6</c:v>
+                  <c:v>4.6736619999999361E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4128000000005469E-5</c:v>
+                  <c:v>4.9635870000000904E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1869000000002141E-5</c:v>
+                  <c:v>5.2493849999999754E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.603299999999531E-5</c:v>
+                  <c:v>5.4985339999998224E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3604999999996552E-5</c:v>
+                  <c:v>5.7443960000001229E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3095999999998017E-5</c:v>
+                  <c:v>6.0660919999996569E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3461000000002421E-5</c:v>
+                  <c:v>6.3564279999998516E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6505000000000042E-5</c:v>
+                  <c:v>6.7407210000004622E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1296000000000707E-5</c:v>
+                  <c:v>6.9949230000003826E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9352000000011432E-5</c:v>
+                  <c:v>7.3875839999997337E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.298319999999997E-4</c:v>
+                  <c:v>7.7096479999998026E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.765130000000026E-4</c:v>
+                  <c:v>8.0440730000006511E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.626100000000008E-4</c:v>
+                  <c:v>8.4033249999998817E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9628299999999271E-4</c:v>
+                  <c:v>8.7768829999991735E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2643799999998661E-4</c:v>
+                  <c:v>9.1413570000003115E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6716300000000141E-4</c:v>
+                  <c:v>9.5775829999996624E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3537700000000112E-4</c:v>
+                  <c:v>9.9448499999998316E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9049600000000238E-4</c:v>
+                  <c:v>1.033772800000037E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0211099999998951E-4</c:v>
+                  <c:v>1.077311799999961E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3152799999998328E-4</c:v>
+                  <c:v>1.113743600000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9040399999999095E-4</c:v>
+                  <c:v>1.1682485999999839E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3734399999999733E-4</c:v>
+                  <c:v>1.2207336999999679E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0055800000002879E-4</c:v>
+                  <c:v>1.2629195999999329E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6244200000000755E-4</c:v>
+                  <c:v>1.3388154999998391E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4859599999998138E-4</c:v>
+                  <c:v>1.3707824000000811E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0591899999999045E-4</c:v>
+                  <c:v>1.411592599999722E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8513000000000285E-4</c:v>
+                  <c:v>1.459705499999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6816999999998826E-4</c:v>
+                  <c:v>1.520413899999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.059516999999976E-3</c:v>
+                  <c:v>1.5722279000001439E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1596799999999869E-3</c:v>
+                  <c:v>1.6283318000000688E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2712750000000029E-3</c:v>
+                  <c:v>1.6791002999999589E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3808850000000649E-3</c:v>
+                  <c:v>1.7532846999998811E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.485630000000055E-3</c:v>
+                  <c:v>1.801289600000075E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.647255000000012E-3</c:v>
+                  <c:v>1.8630991000001419E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7240239999999039E-3</c:v>
+                  <c:v>1.91317289999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8856789999999179E-3</c:v>
+                  <c:v>1.9830660999999451E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0025649999999831E-3</c:v>
+                  <c:v>2.0555161000000339E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1514980000000251E-3</c:v>
+                  <c:v>2.1104278999998199E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3179869999999168E-3</c:v>
+                  <c:v>2.1642977999996451E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4672990000000178E-3</c:v>
+                  <c:v>2.2392725000001969E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6251600000000508E-3</c:v>
+                  <c:v>2.3158583000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.840406000000044E-3</c:v>
+                  <c:v>2.4022094999999691E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.9824150000000321E-3</c:v>
+                  <c:v>2.475121399999693E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1948620000001428E-3</c:v>
+                  <c:v>2.558456100000114E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3539469999997709E-3</c:v>
+                  <c:v>2.633432299999754E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5525349999998919E-3</c:v>
+                  <c:v>2.69292640000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.782733999999835E-3</c:v>
+                  <c:v>2.776790799999674E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.882529799999816E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,950 +502,324 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$101</c:f>
+              <c:f>Лист1!$A$53:$A$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$3:$G$52</c:f>
+              <c:f>Лист1!$G$53:$G$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2.3079999999980888E-6</c:v>
+                  <c:v>3.4243769999996944E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8410000000027589E-6</c:v>
+                  <c:v>3.6084710000000085E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1209999999972678E-6</c:v>
+                  <c:v>3.8148960000001257E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4869999999949141E-6</c:v>
+                  <c:v>4.0900360000000191E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.181399999999666E-5</c:v>
+                  <c:v>4.334726999999745E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6484999999993863E-5</c:v>
+                  <c:v>4.6282070000003023E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.897600000000499E-5</c:v>
+                  <c:v>4.9354569999997015E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.24910000000067E-5</c:v>
+                  <c:v>5.2313319999991847E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9409000000009123E-5</c:v>
+                  <c:v>5.5570769999998505E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5642000000002387E-5</c:v>
+                  <c:v>5.9115909999999158E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4282999999992745E-5</c:v>
+                  <c:v>6.2715870000003091E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5428000000006246E-5</c:v>
+                  <c:v>6.6700780000005728E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8544999999995408E-5</c:v>
+                  <c:v>6.9802030000004579E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6756999999993979E-5</c:v>
+                  <c:v>7.5287579999995559E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1758699999999899E-4</c:v>
+                  <c:v>7.9214479999999542E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1091199999999857E-4</c:v>
+                  <c:v>8.4330189999995749E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3225400000000938E-4</c:v>
+                  <c:v>8.9088440000010382E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5019700000000745E-4</c:v>
+                  <c:v>9.4207620000011615E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7703199999999478E-4</c:v>
+                  <c:v>9.889986999999819E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4490500000000419E-4</c:v>
+                  <c:v>1.044951700000056E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5981999999999503E-4</c:v>
+                  <c:v>1.0959905000000133E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6262700000000198E-4</c:v>
+                  <c:v>1.1483626000000557E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9267800000000839E-4</c:v>
+                  <c:v>1.2141488000000176E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1349700000003809E-4</c:v>
+                  <c:v>1.2719406000000219E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5827200000000399E-4</c:v>
+                  <c:v>1.3406832999999525E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0122399999999121E-4</c:v>
+                  <c:v>1.4245275000000819E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4500099999999603E-4</c:v>
+                  <c:v>1.5425089000002572E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9661000000004844E-4</c:v>
+                  <c:v>1.5847411000001158E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.626110000000261E-4</c:v>
+                  <c:v>1.6557381000000929E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1095499999995083E-4</c:v>
+                  <c:v>1.731573500000053E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.7150399999992949E-4</c:v>
+                  <c:v>1.8155586999997128E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.494060000000324E-4</c:v>
+                  <c:v>1.8963692000002936E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1696099999998488E-4</c:v>
+                  <c:v>1.9828402000003392E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.1196700000002024E-4</c:v>
+                  <c:v>2.0809453000002802E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.8054600000001095E-4</c:v>
+                  <c:v>2.1707212999996273E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0727999999999493E-3</c:v>
+                  <c:v>2.2750165999999863E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1744860000000128E-3</c:v>
+                  <c:v>2.3738409999997431E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2557439999999959E-3</c:v>
+                  <c:v>2.4752363000001481E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4109669999999321E-3</c:v>
+                  <c:v>2.5829403000000757E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5003190000000184E-3</c:v>
+                  <c:v>2.686080999999774E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.62328200000001E-3</c:v>
+                  <c:v>2.7998760000004376E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.705488999999947E-3</c:v>
+                  <c:v>2.9556924999997701E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8885649999999998E-3</c:v>
+                  <c:v>3.068874799999435E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0692300000000508E-3</c:v>
+                  <c:v>3.2014933999998337E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2479060000000755E-3</c:v>
+                  <c:v>3.3282641999996372E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3563440000001629E-3</c:v>
+                  <c:v>3.4565810999997663E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.572074000000057E-3</c:v>
+                  <c:v>3.6018877999999289E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7125539999998697E-3</c:v>
+                  <c:v>3.7427038999995832E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9607789999999317E-3</c:v>
+                  <c:v>3.8876397000004774E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.146411999999934E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Краскал без сорт</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>4.0561287000000446E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$F$3:$F$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1.222999999999086E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.227000000000756E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.935999999995499E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1429999999974552E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0919999999973231E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.178500000000082E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.38210000000083E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.67179999999989E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2024000000008261E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7277000000001101E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4339999999989381E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.3584000000000957E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4712999999995117E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9847999999992356E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.5764000000004852E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0836999999996949E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.091930000000096E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.250660000000092E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4875600000000769E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0927899999999779E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2109699999999229E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.221699999999949E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5150099999999838E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7023900000001428E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1132600000001183E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.490849999999935E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8845100000000081E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3289400000004371E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9730399999998727E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.4074500000001803E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9816499999994829E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.685160000000145E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.3187999999997362E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2179600000000799E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.8492400000003354E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.6633399999997312E-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.064428999999985E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.145191000000025E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2873519999999951E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.371713999999979E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.488309999999888E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.570952000000059E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.7429329999999511E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.9137490000001021E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.0232329999999802E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.1877680000000049E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.39008100000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.5319279999999368E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.771590999999774E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9455729999999748E-3</c:v>
+                  <c:v>4.2373560000004314E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1595,7 +828,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$K$2</c:f>
@@ -1621,944 +854,324 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$101</c:f>
+              <c:f>Лист1!$A$53:$A$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$3:$L$51</c:f>
+              <c:f>Лист1!$L$53:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>2.0520000000012748E-6</c:v>
+                  <c:v>8.9594630000000199E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9509999999975952E-6</c:v>
+                  <c:v>9.6190620000000497E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6459999999990416E-6</c:v>
+                  <c:v>1.0301513000000102E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6219999999946912E-6</c:v>
+                  <c:v>1.1079756999999829E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.622299999999854E-5</c:v>
+                  <c:v>1.1833133000000516E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5724000000003635E-5</c:v>
+                  <c:v>1.2595361000000332E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9703999999995953E-5</c:v>
+                  <c:v>1.340623699999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7603999999999967E-5</c:v>
+                  <c:v>1.4282764000000231E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9246000000000565E-5</c:v>
+                  <c:v>1.5201044000000153E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0354999999990839E-5</c:v>
+                  <c:v>1.6209062000000215E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7532000000004609E-5</c:v>
+                  <c:v>1.715246300000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0827800000000498E-4</c:v>
+                  <c:v>1.8241210000000049E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3568199999999922E-4</c:v>
+                  <c:v>1.9369106999999983E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7415699999999255E-4</c:v>
+                  <c:v>2.0545452000000353E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4338000000000192E-4</c:v>
+                  <c:v>2.1725665999999529E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.274779999999899E-4</c:v>
+                  <c:v>2.2992050999998959E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7995699999998396E-4</c:v>
+                  <c:v>2.4314039999999575E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1985099999996879E-4</c:v>
+                  <c:v>2.5720644000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9591099999998659E-4</c:v>
+                  <c:v>2.7230837000000174E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9872700000002333E-4</c:v>
+                  <c:v>2.8679151000000045E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0451499999999438E-4</c:v>
+                  <c:v>3.0077957999999825E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0478100000001863E-4</c:v>
+                  <c:v>3.1769531999999434E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6279399999999997E-4</c:v>
+                  <c:v>3.3584924999999551E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4353700000001849E-4</c:v>
+                  <c:v>3.5252504000001329E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.3088100000003893E-4</c:v>
+                  <c:v>3.705880399999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.4263900000000954E-4</c:v>
+                  <c:v>3.9247984000001276E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0601569999999817E-3</c:v>
+                  <c:v>4.2152132999999321E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2047040000000072E-3</c:v>
+                  <c:v>4.3667096000000349E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3154149999999689E-3</c:v>
+                  <c:v>4.569834100000264E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4718190000000677E-3</c:v>
+                  <c:v>4.7820200999999542E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.669674999999904E-3</c:v>
+                  <c:v>5.0192680000001245E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8029310000000271E-3</c:v>
+                  <c:v>5.2421307000000188E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0275080000000043E-3</c:v>
+                  <c:v>5.4982232000001255E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2502269999999051E-3</c:v>
+                  <c:v>5.7018227999997749E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4251849999999656E-3</c:v>
+                  <c:v>5.9743927999999759E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6829460000000254E-3</c:v>
+                  <c:v>6.2574039999999803E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0051439999999015E-3</c:v>
+                  <c:v>6.5132449000003298E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1957059999999341E-3</c:v>
+                  <c:v>6.8336247000002001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6474809999999811E-3</c:v>
+                  <c:v>7.1256122999999422E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.8114079999999714E-3</c:v>
+                  <c:v>7.4384850000001279E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1538499999999702E-3</c:v>
+                  <c:v>7.7684827000001622E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5246609999998987E-3</c:v>
+                  <c:v>8.1353767000002783E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9262210000001801E-3</c:v>
+                  <c:v>8.4723118999995101E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.3699499999999923E-3</c:v>
+                  <c:v>8.8426041999996416E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7544769999999272E-3</c:v>
+                  <c:v>9.1882552000001283E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2286220000001436E-3</c:v>
+                  <c:v>9.5672790000000424E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.7508229999996413E-3</c:v>
+                  <c:v>9.9770678999995546E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.286673000000121E-3</c:v>
+                  <c:v>0.10357077100000087</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.7175100000001608E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Обр удаление без сорт</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>0.10770603500000331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>0.11218255099999794</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$K$3:$K$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>7.560000000039757E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.287000000001926E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0180000000028523E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8789999999974154E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2062999999993271E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9752000000003991E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3691999999998488E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.054599999999019E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0625000000006347E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0181999999998619E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.4563999999999186E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1694000000003273E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1760699999999959E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5252599999999281E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1397799999999911E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0242699999999841E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5028799999998958E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8755899999999502E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.576250000000125E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5285800000001382E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.513739999999912E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5263300000001569E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0821900000000099E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.8480099999999931E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6967600000002359E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.7527300000000974E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.8711999999998587E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.125942999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.2320699999999721E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3828140000000479E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5698279999999799E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.700673000000021E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.9178069999999799E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.1291689999999711E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.3000179999999662E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.5491970000000291E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.8627229999999399E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.0503780000000272E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.4874869999999979E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.6469550000000871E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9829389999999519E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.3413799999999546E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.7365500000000442E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.1727530000000143E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.547251999999947E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0062780000001937E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.5290539999996967E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.0429550000001484E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.4770469999998921E-3</c:v>
+                  <c:v>0.11684796100000024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2574,11 +1187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256711864"/>
-        <c:axId val="256712248"/>
+        <c:axId val="252142792"/>
+        <c:axId val="252423408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256711864"/>
+        <c:axId val="252142792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2621,7 +1234,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256712248"/>
+        <c:crossAx val="252423408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2629,7 +1242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256712248"/>
+        <c:axId val="252423408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +1293,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256711864"/>
+        <c:crossAx val="252142792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2794,7 +1407,7 @@
           <c:x val="8.3150723564572329E-2"/>
           <c:y val="4.4651389946309662E-2"/>
           <c:w val="0.886398008877188"/>
-          <c:h val="0.76781980399414196"/>
+          <c:h val="0.71635964592387713"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2826,457 +1439,352 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$151</c:f>
+              <c:f>Лист1!$A$53:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>63</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>64</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>69</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>72</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>74</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>76</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>77</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>78</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>79</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>80</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>81</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>82</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>83</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>84</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>86</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>88</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>93</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>96</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>97</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>98</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>99</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -3284,455 +1792,305 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$3:$B$151</c:f>
+              <c:f>Лист1!$B$53:$B$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>1.51600000000307E-6</c:v>
+                  <c:v>3.9931709999997981E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.229000000000149E-6</c:v>
+                  <c:v>4.2078790000002189E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6250000000039888E-6</c:v>
+                  <c:v>4.4852069999998887E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3450000000040443E-6</c:v>
+                  <c:v>4.6736619999999361E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4128000000005469E-5</c:v>
+                  <c:v>4.9635870000000904E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1869000000002141E-5</c:v>
+                  <c:v>5.2493849999999754E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.603299999999531E-5</c:v>
+                  <c:v>5.4985339999998224E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3604999999996552E-5</c:v>
+                  <c:v>5.7443960000001229E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3095999999998017E-5</c:v>
+                  <c:v>6.0660919999996569E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.3461000000002421E-5</c:v>
+                  <c:v>6.3564279999998516E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6505000000000042E-5</c:v>
+                  <c:v>6.7407210000004622E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.1296000000000707E-5</c:v>
+                  <c:v>6.9949230000003826E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.9352000000011432E-5</c:v>
+                  <c:v>7.3875839999997337E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.298319999999997E-4</c:v>
+                  <c:v>7.7096479999998026E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.765130000000026E-4</c:v>
+                  <c:v>8.0440730000006511E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.626100000000008E-4</c:v>
+                  <c:v>8.4033249999998817E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9628299999999271E-4</c:v>
+                  <c:v>8.7768829999991735E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2643799999998661E-4</c:v>
+                  <c:v>9.1413570000003115E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.6716300000000141E-4</c:v>
+                  <c:v>9.5775829999996624E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3537700000000112E-4</c:v>
+                  <c:v>9.9448499999998316E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9049600000000238E-4</c:v>
+                  <c:v>1.033772800000037E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.0211099999998951E-4</c:v>
+                  <c:v>1.077311799999961E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.3152799999998328E-4</c:v>
+                  <c:v>1.113743600000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.9040399999999095E-4</c:v>
+                  <c:v>1.1682485999999839E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.3734399999999733E-4</c:v>
+                  <c:v>1.2207336999999679E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0055800000002879E-4</c:v>
+                  <c:v>1.2629195999999329E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.6244200000000755E-4</c:v>
+                  <c:v>1.3388154999998391E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.4859599999998138E-4</c:v>
+                  <c:v>1.3707824000000811E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0591899999999045E-4</c:v>
+                  <c:v>1.411592599999722E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8513000000000285E-4</c:v>
+                  <c:v>1.459705499999984E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.6816999999998826E-4</c:v>
+                  <c:v>1.520413899999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.059516999999976E-3</c:v>
+                  <c:v>1.5722279000001439E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1596799999999869E-3</c:v>
+                  <c:v>1.6283318000000688E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.2712750000000029E-3</c:v>
+                  <c:v>1.6791002999999589E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3808850000000649E-3</c:v>
+                  <c:v>1.7532846999998811E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.485630000000055E-3</c:v>
+                  <c:v>1.801289600000075E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.647255000000012E-3</c:v>
+                  <c:v>1.8630991000001419E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7240239999999039E-3</c:v>
+                  <c:v>1.91317289999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.8856789999999179E-3</c:v>
+                  <c:v>1.9830660999999451E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.0025649999999831E-3</c:v>
+                  <c:v>2.0555161000000339E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.1514980000000251E-3</c:v>
+                  <c:v>2.1104278999998199E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3179869999999168E-3</c:v>
+                  <c:v>2.1642977999996451E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4672990000000178E-3</c:v>
+                  <c:v>2.2392725000001969E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.6251600000000508E-3</c:v>
+                  <c:v>2.3158583000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.840406000000044E-3</c:v>
+                  <c:v>2.4022094999999691E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.9824150000000321E-3</c:v>
+                  <c:v>2.475121399999693E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1948620000001428E-3</c:v>
+                  <c:v>2.558456100000114E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.3539469999997709E-3</c:v>
+                  <c:v>2.633432299999754E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.5525349999998919E-3</c:v>
+                  <c:v>2.69292640000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.782733999999835E-3</c:v>
+                  <c:v>2.776790799999674E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.9931709999997981E-3</c:v>
+                  <c:v>2.882529799999816E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>4.2078790000002189E-3</c:v>
+                  <c:v>2.95231769999981E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.4852069999998887E-3</c:v>
+                  <c:v>3.0449957000001859E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.6736619999999361E-3</c:v>
+                  <c:v>3.1312833000004051E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.9635870000000904E-3</c:v>
+                  <c:v>3.1903633000000577E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2493849999999754E-3</c:v>
+                  <c:v>3.2803010000000077E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4985339999998224E-3</c:v>
+                  <c:v>3.435964499999386E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.7443960000001229E-3</c:v>
+                  <c:v>3.4553779999992013E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>6.0660919999996569E-3</c:v>
+                  <c:v>3.6093203999997742E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6.3564279999998516E-3</c:v>
+                  <c:v>3.6581616999997103E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.7407210000004622E-3</c:v>
+                  <c:v>3.7412741999997931E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.9949230000003826E-3</c:v>
+                  <c:v>3.8392126999999623E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>7.3875839999997337E-3</c:v>
+                  <c:v>3.9467245999996979E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.7096479999998026E-3</c:v>
+                  <c:v>4.0442829000011213E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>8.0440730000006511E-3</c:v>
+                  <c:v>4.1429823999994821E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.4033249999998817E-3</c:v>
+                  <c:v>4.2549106000002439E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.7768829999991735E-3</c:v>
+                  <c:v>4.441695100000629E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.1413570000003115E-3</c:v>
+                  <c:v>4.4740967999998701E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.5775829999996624E-3</c:v>
+                  <c:v>4.598123499999815E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.9448499999998316E-3</c:v>
+                  <c:v>4.6974581000001757E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.033772800000037E-2</c:v>
+                  <c:v>4.8238573999993831E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.077311799999961E-2</c:v>
+                  <c:v>4.9412363999997523E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.113743600000006E-2</c:v>
+                  <c:v>5.0699627999999851E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.1682485999999839E-2</c:v>
+                  <c:v>5.1882349000011353E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2207336999999679E-2</c:v>
+                  <c:v>5.3472649000000268E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2629195999999329E-2</c:v>
+                  <c:v>5.4290998000003581E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3388154999998391E-2</c:v>
+                  <c:v>5.5598188999990722E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3707824000000811E-2</c:v>
+                  <c:v>5.683475099999441E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.411592599999722E-2</c:v>
+                  <c:v>5.8123744999991227E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.459705499999984E-2</c:v>
+                  <c:v>5.9505206999997423E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.520413899999966E-2</c:v>
+                  <c:v>6.0989980999993351E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5722279000001439E-2</c:v>
+                  <c:v>6.2226888999989571E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.6283318000000688E-2</c:v>
+                  <c:v>6.3540195000002769E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6791002999999589E-2</c:v>
+                  <c:v>6.5208784999992983E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7532846999998811E-2</c:v>
+                  <c:v>6.691130300001305E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.801289600000075E-2</c:v>
+                  <c:v>6.8975027000001313E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8630991000001419E-2</c:v>
+                  <c:v>7.0826844999983221E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.91317289999995E-2</c:v>
+                  <c:v>7.2019974999989245E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.9830660999999451E-2</c:v>
+                  <c:v>7.3608012000015599E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.0555161000000339E-2</c:v>
+                  <c:v>7.5111168999999339E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.1104278999998199E-2</c:v>
+                  <c:v>7.7386078999986688E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.1642977999996451E-2</c:v>
+                  <c:v>7.8579127999987577E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2392725000001969E-2</c:v>
+                  <c:v>8.0036286000017748E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.3158583000004E-2</c:v>
+                  <c:v>8.1806866000019907E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.4022094999999691E-2</c:v>
+                  <c:v>8.3581403000007409E-2</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.475121399999693E-2</c:v>
+                  <c:v>8.528367399999752E-2</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2.558456100000114E-2</c:v>
+                  <c:v>8.6821397000003339E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2.633432299999754E-2</c:v>
+                  <c:v>8.8557187000019438E-2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.69292640000009E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.776790799999674E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.882529799999816E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.95231769999981E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3.0449957000001859E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3.1312833000004051E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.1903633000000577E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.2803010000000077E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.435964499999386E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.4553779999992013E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.6093203999997742E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.6581616999997103E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.7412741999997931E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.8392126999999623E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.9467245999996979E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>4.0442829000011213E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>4.1429823999994821E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4.2549106000002439E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4.441695100000629E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4.4740967999998701E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>4.598123499999815E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>4.6974581000001757E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>4.8238573999993831E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>4.9412363999997523E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>5.0699627999999851E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>5.1882349000011353E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>5.3472649000000268E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>5.4290998000003581E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>5.5598188999990722E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5.683475099999441E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5.8123744999991227E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>5.9505206999997423E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>6.0989980999993351E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6.2226888999989571E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6.3540195000002769E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.5208784999992983E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>6.691130300001305E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6.8975027000001313E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>7.0826844999983221E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7.2019974999989245E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7.3608012000015599E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>7.5111168999999339E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7.7386078999986688E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>7.8579127999987577E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>8.0036286000017748E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>8.1806866000019907E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>8.3581403000007409E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>8.528367399999752E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>8.6821397000003339E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>8.8557187000019438E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>9.0453137999993494E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3766,457 +2124,353 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$151</c:f>
+              <c:f>Лист1!$A$53:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>63</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>64</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>69</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>72</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>74</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>76</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>77</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>78</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>79</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>80</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>81</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>82</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>83</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>84</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>86</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>88</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>93</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>96</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>97</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>98</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>99</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -4224,1241 +2478,306 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$G$3:$G$151</c:f>
+              <c:f>Лист1!$G$53:$G$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2.3079999999980888E-6</c:v>
+                  <c:v>3.4243769999996944E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8410000000027589E-6</c:v>
+                  <c:v>3.6084710000000085E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1209999999972678E-6</c:v>
+                  <c:v>3.8148960000001257E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4869999999949141E-6</c:v>
+                  <c:v>4.0900360000000191E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.181399999999666E-5</c:v>
+                  <c:v>4.334726999999745E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6484999999993863E-5</c:v>
+                  <c:v>4.6282070000003023E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.897600000000499E-5</c:v>
+                  <c:v>4.9354569999997015E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.24910000000067E-5</c:v>
+                  <c:v>5.2313319999991847E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9409000000009123E-5</c:v>
+                  <c:v>5.5570769999998505E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5642000000002387E-5</c:v>
+                  <c:v>5.9115909999999158E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.4282999999992745E-5</c:v>
+                  <c:v>6.2715870000003091E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.5428000000006246E-5</c:v>
+                  <c:v>6.6700780000005728E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8544999999995408E-5</c:v>
+                  <c:v>6.9802030000004579E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.6756999999993979E-5</c:v>
+                  <c:v>7.5287579999995559E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1758699999999899E-4</c:v>
+                  <c:v>7.9214479999999542E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1091199999999857E-4</c:v>
+                  <c:v>8.4330189999995749E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3225400000000938E-4</c:v>
+                  <c:v>8.9088440000010382E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5019700000000745E-4</c:v>
+                  <c:v>9.4207620000011615E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.7703199999999478E-4</c:v>
+                  <c:v>9.889986999999819E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.4490500000000419E-4</c:v>
+                  <c:v>1.044951700000056E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.5981999999999503E-4</c:v>
+                  <c:v>1.0959905000000133E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6262700000000198E-4</c:v>
+                  <c:v>1.1483626000000557E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.9267800000000839E-4</c:v>
+                  <c:v>1.2141488000000176E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1349700000003809E-4</c:v>
+                  <c:v>1.2719406000000219E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.5827200000000399E-4</c:v>
+                  <c:v>1.3406832999999525E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0122399999999121E-4</c:v>
+                  <c:v>1.4245275000000819E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.4500099999999603E-4</c:v>
+                  <c:v>1.5425089000002572E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.9661000000004844E-4</c:v>
+                  <c:v>1.5847411000001158E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.626110000000261E-4</c:v>
+                  <c:v>1.6557381000000929E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.1095499999995083E-4</c:v>
+                  <c:v>1.731573500000053E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.7150399999992949E-4</c:v>
+                  <c:v>1.8155586999997128E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.494060000000324E-4</c:v>
+                  <c:v>1.8963692000002936E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1696099999998488E-4</c:v>
+                  <c:v>1.9828402000003392E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.1196700000002024E-4</c:v>
+                  <c:v>2.0809453000002802E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.8054600000001095E-4</c:v>
+                  <c:v>2.1707212999996273E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.0727999999999493E-3</c:v>
+                  <c:v>2.2750165999999863E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1744860000000128E-3</c:v>
+                  <c:v>2.3738409999997431E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2557439999999959E-3</c:v>
+                  <c:v>2.4752363000001481E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4109669999999321E-3</c:v>
+                  <c:v>2.5829403000000757E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5003190000000184E-3</c:v>
+                  <c:v>2.686080999999774E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.62328200000001E-3</c:v>
+                  <c:v>2.7998760000004376E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.705488999999947E-3</c:v>
+                  <c:v>2.9556924999997701E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.8885649999999998E-3</c:v>
+                  <c:v>3.068874799999435E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.0692300000000508E-3</c:v>
+                  <c:v>3.2014933999998337E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2479060000000755E-3</c:v>
+                  <c:v>3.3282641999996372E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3563440000001629E-3</c:v>
+                  <c:v>3.4565810999997663E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.572074000000057E-3</c:v>
+                  <c:v>3.6018877999999289E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7125539999998697E-3</c:v>
+                  <c:v>3.7427038999995832E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9607789999999317E-3</c:v>
+                  <c:v>3.8876397000004774E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.146411999999934E-3</c:v>
+                  <c:v>4.0561287000000446E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.4243769999996944E-3</c:v>
+                  <c:v>4.2373560000004314E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.6084710000000085E-3</c:v>
+                  <c:v>4.4019253999999244E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3.8148960000001257E-3</c:v>
+                  <c:v>4.5920014000000155E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.0900360000000191E-3</c:v>
+                  <c:v>4.7618940000003815E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.334726999999745E-3</c:v>
+                  <c:v>4.9884002999992842E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.6282070000003023E-3</c:v>
+                  <c:v>5.1629174999994802E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.9354569999997015E-3</c:v>
+                  <c:v>5.4456936000003682E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.2313319999991847E-3</c:v>
+                  <c:v>5.5601067999999719E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.5570769999998505E-3</c:v>
+                  <c:v>5.8283634000011943E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.9115909999999158E-3</c:v>
+                  <c:v>5.995906699998841E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6.2715870000003091E-3</c:v>
+                  <c:v>6.200621099998898E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6.6700780000005728E-3</c:v>
+                  <c:v>6.4165484999990668E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.9802030000004579E-3</c:v>
+                  <c:v>6.6663992000018199E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.5287579999995559E-3</c:v>
+                  <c:v>6.8928525999988319E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.9214479999999542E-3</c:v>
+                  <c:v>7.1394633999993865E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>8.4330189999995749E-3</c:v>
+                  <c:v>7.3982019000004576E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>8.9088440000010382E-3</c:v>
+                  <c:v>7.7312935999990479E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.4207620000011615E-3</c:v>
+                  <c:v>7.929299300000367E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.889986999999819E-3</c:v>
+                  <c:v>8.2766265999996452E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.044951700000056E-2</c:v>
+                  <c:v>8.5140278999998598E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.0959905000000133E-2</c:v>
+                  <c:v>8.8207831000004261E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.1483626000000557E-2</c:v>
+                  <c:v>9.141642400001275E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2141488000000176E-2</c:v>
+                  <c:v>9.4748543999980936E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2719406000000219E-2</c:v>
+                  <c:v>9.8158321000016702E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3406832999999525E-2</c:v>
+                  <c:v>0.10224345000000996</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.4245275000000819E-2</c:v>
+                  <c:v>0.10558840400000004</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.5425089000002572E-2</c:v>
+                  <c:v>0.10845242499997763</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.5847411000001158E-2</c:v>
+                  <c:v>0.11233667400000513</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.6557381000000929E-2</c:v>
+                  <c:v>0.11591526800001475</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.731573500000053E-2</c:v>
+                  <c:v>0.12013280099998606</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.8155586999997128E-2</c:v>
+                  <c:v>0.12448824300000527</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8963692000002936E-2</c:v>
+                  <c:v>0.12868337699999755</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.9828402000003392E-2</c:v>
+                  <c:v>0.13281358800002635</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0809453000002802E-2</c:v>
+                  <c:v>0.13714506799999526</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.1707212999996273E-2</c:v>
+                  <c:v>0.14150057000000738</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.2750165999999863E-2</c:v>
+                  <c:v>0.14696418099998712</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.3738409999997431E-2</c:v>
+                  <c:v>0.15143454500001324</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4752363000001481E-2</c:v>
+                  <c:v>0.15586527900001554</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.5829403000000757E-2</c:v>
+                  <c:v>0.1612456510000061</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.686080999999774E-2</c:v>
+                  <c:v>0.16567051699998497</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.7998760000004376E-2</c:v>
+                  <c:v>0.17152366399998301</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.9556924999997701E-2</c:v>
+                  <c:v>0.1765186259999518</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3.068874799999435E-2</c:v>
+                  <c:v>0.18214252299997952</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3.2014933999998337E-2</c:v>
+                  <c:v>0.18709700200001858</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.3282641999996372E-2</c:v>
+                  <c:v>0.19318989699998843</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>3.4565810999997663E-2</c:v>
+                  <c:v>0.19813089899999337</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>3.6018877999999289E-2</c:v>
+                  <c:v>0.20441810900003929</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.7427038999995832E-2</c:v>
+                  <c:v>0.2109347009999783</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.8876397000004774E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>4.0561287000000446E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Краскал без сорт</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$F$3:$F$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>1.222999999999086E-6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.227000000000756E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.935999999995499E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.1429999999974552E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0919999999973231E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.178500000000082E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.38210000000083E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.67179999999989E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2024000000008261E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7277000000001101E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.4339999999989381E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.3584000000000957E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.4712999999995117E-5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9847999999992356E-5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.5764000000004852E-5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.0836999999996949E-5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.091930000000096E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.250660000000092E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4875600000000769E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.0927899999999779E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2109699999999229E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.221699999999949E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.5150099999999838E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7023900000001428E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1132600000001183E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.490849999999935E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.8845100000000081E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3289400000004371E-4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.9730399999998727E-4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.4074500000001803E-4</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9816499999994829E-4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.685160000000145E-4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.3187999999997362E-4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>8.2179600000000799E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.8492400000003354E-4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9.6633399999997312E-4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.064428999999985E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.145191000000025E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2873519999999951E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.371713999999979E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.488309999999888E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.570952000000059E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.7429329999999511E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.9137490000001021E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.0232329999999802E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.1877680000000049E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.39008100000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.5319279999999368E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.771590999999774E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.9455729999999748E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.215073999999909E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.3902530000002071E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.589737E-3</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.8539550000001909E-3</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.0931229999996788E-3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.3767079999999939E-3</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.671695999999983E-3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.9597339999994713E-3</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.2730470000000194E-3</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.6241159999997591E-3</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.9616890000002342E-3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.3498740000001424E-3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.6618889999998741E-3</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.1791279999996504E-3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.5746210000000496E-3</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.070438000000308E-3</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.5311050000004222E-3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9.0377640000004079E-3</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.4951179999998199E-3</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.0033169000000021E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0546192000000331E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.103451899999911E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.1700185999999771E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.225162899999944E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.289579199999949E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.363564400000101E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.4763617000003251E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.518129600000236E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.5889459000000841E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.6627027000000679E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.7441705999996771E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.8238527000000601E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.9095994000001039E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.0067224000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.0938294999998278E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.197439399999979E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.294958400000013E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.392990000000083E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.4987913000000792E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.5997727999997548E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.7134473000002681E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.8679039000000441E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.9792786999996681E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.1103462999998902E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.236368099999936E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.3629949999998417E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.5061880999999177E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.6447258999998552E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.7887830000001371E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.9553451000000447E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>4.1318012000002111E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>4.2963365999999038E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>4.4835349000001093E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>4.6484033000003248E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>4.8670326999995267E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>5.0435258999996221E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>5.3223023000007287E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>5.4361362000005332E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>5.7009685000009538E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>5.8664040999992721E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>6.0691979999998008E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.2811669999996406E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.5317125000013909E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.7541482999994282E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7.0023589999996153E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7.2586516999999726E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>7.5905604999996962E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.7841457999996921E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>8.1258020999996461E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>8.3620418999994395E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8.666170999999849E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>8.9834564000007056E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>9.3154399999996251E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>9.6524473000010852E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.100581636000004</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.1039052280000055</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.10676047099998411</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.11062224600000491</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.1141673580000088</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.11836721499998699</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.12268618899999641</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.12689053900000999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.1309928970000078</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.1352810069999964</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.13961344400000139</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.14505257699999449</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.149505444000024</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.1538767670000129</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.1592529219999915</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.1636692920000041</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.1694552549999935</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.17440057699996939</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.18005479299997659</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.1849856080000063</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.19106748699999121</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.19598635900000769</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.2022086580000132</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.20868604099997809</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.21687181200000849</c:v>
+                  <c:v>0.21920853200002055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5467,7 +2786,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Лист1!$K$2</c:f>
@@ -5491,457 +2810,353 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$A$3:$A$151</c:f>
+              <c:f>Лист1!$A$53:$A$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>34</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>35</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>36</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>39</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>40</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>41</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>44</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>45</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>46</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>47</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>48</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>49</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>50</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>51</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>52</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>53</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>54</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>55</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>57</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>58</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>59</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>60</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>61</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>62</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>63</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>64</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>65</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>66</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>67</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>68</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>69</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>70</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>71</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>72</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>73</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>74</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>75</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>76</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>77</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>78</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>79</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>80</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>81</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>82</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>83</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>84</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>85</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>86</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>87</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>88</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>89</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>90</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>91</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>92</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>93</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>94</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>95</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>96</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>97</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>98</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>99</c:v>
+                  <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
@@ -5949,1388 +3164,306 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$3:$L$151</c:f>
+              <c:f>Лист1!$L$53:$L$151</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
+                <c:ptCount val="99"/>
                 <c:pt idx="0">
-                  <c:v>2.0520000000012748E-6</c:v>
+                  <c:v>8.9594630000000199E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9509999999975952E-6</c:v>
+                  <c:v>9.6190620000000497E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6459999999990416E-6</c:v>
+                  <c:v>1.0301513000000102E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6219999999946912E-6</c:v>
+                  <c:v>1.1079756999999829E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.622299999999854E-5</c:v>
+                  <c:v>1.1833133000000516E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5724000000003635E-5</c:v>
+                  <c:v>1.2595361000000332E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9703999999995953E-5</c:v>
+                  <c:v>1.340623699999966E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7603999999999967E-5</c:v>
+                  <c:v>1.4282764000000231E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9246000000000565E-5</c:v>
+                  <c:v>1.5201044000000153E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.0354999999990839E-5</c:v>
+                  <c:v>1.6209062000000215E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7532000000004609E-5</c:v>
+                  <c:v>1.715246300000018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.0827800000000498E-4</c:v>
+                  <c:v>1.8241210000000049E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3568199999999922E-4</c:v>
+                  <c:v>1.9369106999999983E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7415699999999255E-4</c:v>
+                  <c:v>2.0545452000000353E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4338000000000192E-4</c:v>
+                  <c:v>2.1725665999999529E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.274779999999899E-4</c:v>
+                  <c:v>2.2992050999998959E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.7995699999998396E-4</c:v>
+                  <c:v>2.4314039999999575E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1985099999996879E-4</c:v>
+                  <c:v>2.5720644000000022E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9591099999998659E-4</c:v>
+                  <c:v>2.7230837000000174E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.9872700000002333E-4</c:v>
+                  <c:v>2.8679151000000045E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0451499999999438E-4</c:v>
+                  <c:v>3.0077957999999825E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0478100000001863E-4</c:v>
+                  <c:v>3.1769531999999434E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6279399999999997E-4</c:v>
+                  <c:v>3.3584924999999551E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.4353700000001849E-4</c:v>
+                  <c:v>3.5252504000001329E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.3088100000003893E-4</c:v>
+                  <c:v>3.705880399999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.4263900000000954E-4</c:v>
+                  <c:v>3.9247984000001276E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0601569999999817E-3</c:v>
+                  <c:v>4.2152132999999321E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2047040000000072E-3</c:v>
+                  <c:v>4.3667096000000349E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3154149999999689E-3</c:v>
+                  <c:v>4.569834100000264E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.4718190000000677E-3</c:v>
+                  <c:v>4.7820200999999542E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.669674999999904E-3</c:v>
+                  <c:v>5.0192680000001245E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.8029310000000271E-3</c:v>
+                  <c:v>5.2421307000000188E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.0275080000000043E-3</c:v>
+                  <c:v>5.4982232000001255E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2502269999999051E-3</c:v>
+                  <c:v>5.7018227999997749E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.4251849999999656E-3</c:v>
+                  <c:v>5.9743927999999759E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.6829460000000254E-3</c:v>
+                  <c:v>6.2574039999999803E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.0051439999999015E-3</c:v>
+                  <c:v>6.5132449000003298E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1957059999999341E-3</c:v>
+                  <c:v>6.8336247000002001E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.6474809999999811E-3</c:v>
+                  <c:v>7.1256122999999422E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.8114079999999714E-3</c:v>
+                  <c:v>7.4384850000001279E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.1538499999999702E-3</c:v>
+                  <c:v>7.7684827000001622E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5246609999998987E-3</c:v>
+                  <c:v>8.1353767000002783E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.9262210000001801E-3</c:v>
+                  <c:v>8.4723118999995101E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.3699499999999923E-3</c:v>
+                  <c:v>8.8426041999996416E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.7544769999999272E-3</c:v>
+                  <c:v>9.1882552000001283E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.2286220000001436E-3</c:v>
+                  <c:v>9.5672790000000424E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.7508229999996413E-3</c:v>
+                  <c:v>9.9770678999995546E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.286673000000121E-3</c:v>
+                  <c:v>0.10357077100000087</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.7175100000001608E-3</c:v>
+                  <c:v>0.10770603500000331</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>8.3654440000003293E-3</c:v>
+                  <c:v>0.11218255099999794</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.9594630000000199E-3</c:v>
+                  <c:v>0.11684796100000024</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>9.6190620000000497E-3</c:v>
+                  <c:v>0.12133848299999836</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.0301513000000102E-2</c:v>
+                  <c:v>0.12611766200000094</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1079756999999829E-2</c:v>
+                  <c:v>0.13069822799999428</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1833133000000516E-2</c:v>
+                  <c:v>0.13562469699998927</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2595361000000332E-2</c:v>
+                  <c:v>0.14099168800000597</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.340623699999966E-2</c:v>
+                  <c:v>0.14797596199999019</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.4282764000000231E-2</c:v>
+                  <c:v>0.15217352599999909</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.5201044000000153E-2</c:v>
+                  <c:v>0.15988094100000461</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.6209062000000215E-2</c:v>
+                  <c:v>0.16445671900001002</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.715246300000018E-2</c:v>
+                  <c:v>0.16959039199999548</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.8241210000000049E-2</c:v>
+                  <c:v>0.17570197899999931</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.9369106999999983E-2</c:v>
+                  <c:v>0.18268599300000457</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0545452000000353E-2</c:v>
+                  <c:v>0.18846623599999138</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.1725665999999529E-2</c:v>
+                  <c:v>0.19492020699999901</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.2992050999998959E-2</c:v>
+                  <c:v>0.20181501699999893</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.4314039999999575E-2</c:v>
+                  <c:v>0.21035636100000712</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.5720644000000022E-2</c:v>
+                  <c:v>0.2161832540000023</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.7230837000000174E-2</c:v>
+                  <c:v>0.22454588500000111</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.8679151000000045E-2</c:v>
+                  <c:v>0.23107848699999975</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.0077957999999825E-2</c:v>
+                  <c:v>0.23903685099999739</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.1769531999999434E-2</c:v>
+                  <c:v>0.24725066200002177</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3584924999999551E-2</c:v>
+                  <c:v>0.25565771400000126</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3.5252504000001329E-2</c:v>
+                  <c:v>0.2641798700000072</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.705880399999998E-2</c:v>
+                  <c:v>0.27537360900000979</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3.9247984000001276E-2</c:v>
+                  <c:v>0.28285094499998881</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>4.2152132999999321E-2</c:v>
+                  <c:v>0.29047967500000821</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>4.3667096000000349E-2</c:v>
+                  <c:v>0.29987147800001362</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>4.569834100000264E-2</c:v>
+                  <c:v>0.30963284299998345</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7820200999999542E-2</c:v>
+                  <c:v>0.31979829699999079</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.0192680000001245E-2</c:v>
+                  <c:v>0.33048457799998454</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.2421307000000188E-2</c:v>
+                  <c:v>0.34021718100000947</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.4982232000001255E-2</c:v>
+                  <c:v>0.35064735100000005</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.7018227999997749E-2</c:v>
+                  <c:v>0.36158957100001315</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.9743927999999759E-2</c:v>
+                  <c:v>0.37298144800000732</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.2574039999999803E-2</c:v>
+                  <c:v>0.38662318499998727</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.5132449000003298E-2</c:v>
+                  <c:v>0.39689957300000744</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.8336247000002001E-2</c:v>
+                  <c:v>0.40814815399999815</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.1256122999999422E-2</c:v>
+                  <c:v>0.4204058850000047</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.4384850000001279E-2</c:v>
+                  <c:v>0.43143575800000689</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.7684827000001622E-2</c:v>
+                  <c:v>0.44713998599997923</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.1353767000002783E-2</c:v>
+                  <c:v>0.45756381500004861</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.4723118999995101E-2</c:v>
+                  <c:v>0.47066506899996974</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.8426041999996416E-2</c:v>
+                  <c:v>0.4840464609999981</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9.1882552000001283E-2</c:v>
+                  <c:v>0.49890651099999567</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9.5672790000000424E-2</c:v>
+                  <c:v>0.51269487599998231</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9.9770678999995546E-2</c:v>
+                  <c:v>0.52752136499995694</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.10357077100000087</c:v>
+                  <c:v>0.54222068699996728</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.10770603500000331</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.11218255099999794</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.11684796100000024</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.12133848299999836</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.12611766200000094</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.13069822799999428</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.13562469699998927</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.14099168800000597</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.14797596199999019</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.15217352599999909</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.15988094100000461</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.16445671900001002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.16959039199999548</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.17570197899999931</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.18268599300000457</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.18846623599999138</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.19492020699999901</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.20181501699999893</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.21035636100000712</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.2161832540000023</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.22454588500000111</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.23107848699999975</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.23903685099999739</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.24725066200002177</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.25565771400000126</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.2641798700000072</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.27537360900000979</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.28285094499998881</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.29047967500000821</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.29987147800001362</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.30963284299998345</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.31979829699999079</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.33048457799998454</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.34021718100000947</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.35064735100000005</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.36158957100001315</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.37298144800000732</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.38662318499998727</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.39689957300000744</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.40814815399999815</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.4204058850000047</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.43143575800000689</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.44713998599997923</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.45756381500004861</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.47066506899996974</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.4840464609999981</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.49890651099999567</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.51269487599998231</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.52752136499995694</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.54222068699996728</c:v>
-                </c:pt>
-                <c:pt idx="148">
                   <c:v>0.55945365700004912</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>Обр удаление без сорт</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$A$3:$A$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>150</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$K$3:$K$151</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="149"/>
-                <c:pt idx="0">
-                  <c:v>7.560000000039757E-7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.287000000001926E-6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0180000000028523E-6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8789999999974154E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2062999999993271E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9752000000003991E-5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3691999999998488E-5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.054599999999019E-5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.0625000000006347E-5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.0181999999998619E-5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.4563999999999186E-5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.1694000000003273E-5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1760699999999959E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5252599999999281E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1397799999999911E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.0242699999999841E-4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5028799999998958E-4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.8755899999999502E-4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.576250000000125E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.5285800000001382E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.513739999999912E-4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5263300000001569E-4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.0821900000000099E-4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.8480099999999931E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.6967600000002359E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.7527300000000974E-4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.8711999999998587E-4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.125942999999991E-3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.2320699999999721E-3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.3828140000000479E-3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.5698279999999799E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.700673000000021E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.9178069999999799E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.1291689999999711E-3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.3000179999999662E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.5491970000000291E-3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.8627229999999399E-3</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.0503780000000272E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.4874869999999979E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.6469550000000871E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.9829389999999519E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.3413799999999546E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.7365500000000442E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.1727530000000143E-3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.547251999999947E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0062780000001937E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.5290539999996967E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.0429550000001484E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.4770469999998921E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>8.1064760000001349E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>8.6897900000001364E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.3426700000000199E-3</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.0005754000000019E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.078101399999987E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1505950000000169E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.2265566000000229E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.3051676999999909E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.392564100000023E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4826284999999899E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.5808746999999741E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.6750098000000119E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.781881600000048E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.8937244999999759E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.0081675000000559E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.1245065999999251E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.2499533999999391E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.3807719999999359E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.5202134000000029E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.6690045000000561E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.8113263000000329E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2.9506213999999319E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.120218499999965E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.2978368999999792E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.460451500000062E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.6398488000000381E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.8467562000001718E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.1316658999999173E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>4.2853921000000517E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>4.4875375000002861E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>4.6996718999997709E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>4.9328004000001612E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.1538197000000709E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.4081355000002128E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.6078557999999251E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.8780816999999388E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.157535600000074E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.4131121000000346E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.7325044000000667E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.0223288999999051E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.3353532999999513E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.6625114000003117E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.0304609999998319E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.3650052999998933E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.7288608000000642E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>9.0712187000000319E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>9.4491517000001302E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>9.8582386999998453E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.1023566550000027</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.106462161</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.1109187199999991</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.1155445590000016</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.12001867999999941</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.12474744499999819</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.12929160299999409</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.13428762299999561</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.13962053100000729</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.1465740559999949</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.15073704199999949</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.15837515300000399</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.1629515700000104</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.16808877600000069</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.17417887099999241</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.18113258599999879</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.186877556999998</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.19328357999999871</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.20013026299999859</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.20861190100000609</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.21444916299999589</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.2227695669999957</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.22928652599999849</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.2371430739999926</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.24539291500001811</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.25376638900000209</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.26225349799999548</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.27338553300000967</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.28086072899999409</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.28842245999999933</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.29781076900000242</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.30752114999999769</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.31764444099999772</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.32828859699999607</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.33790881200000278</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.34823114800000438</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.3590828210000086</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.37049918500000562</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.38420794600000141</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.39440463999999342</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.40562966899999081</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.41785114400001022</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.42885215000000698</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.4444933419999802</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.454968739000019</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.46801948199999521</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.48134187200000272</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.49617626100001422</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.5098985779999794</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.52476241399998802</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.53940797799996287</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.55659228200000599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7346,11 +3479,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="256819576"/>
-        <c:axId val="256819960"/>
+        <c:axId val="252490456"/>
+        <c:axId val="252499040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="256819576"/>
+        <c:axId val="252490456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7393,7 +3526,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256819960"/>
+        <c:crossAx val="252499040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7401,7 +3534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256819960"/>
+        <c:axId val="252499040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7452,7 +3585,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256819576"/>
+        <c:crossAx val="252490456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7470,8 +3603,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.5888910195911809E-2"/>
-          <c:y val="0.85188277057533401"/>
+          <c:x val="3.7196410248778657E-2"/>
+          <c:y val="0.8367474821724894"/>
           <c:w val="0.94822517387303551"/>
           <c:h val="0.14461105347235673"/>
         </c:manualLayout>
@@ -8688,16 +4821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>26893</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>573743</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>143435</xdr:rowOff>
+      <xdr:colOff>573742</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9010,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102:G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11280,7 +7413,7 @@
         <v>8.070438000000308E-3</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G102" si="2">E68+F68</f>
+        <f t="shared" ref="G68:G131" si="2">E68+F68</f>
         <v>8.4330189999995749E-3</v>
       </c>
       <c r="I68">
@@ -12469,6 +8602,10 @@
       <c r="F103">
         <v>4.1318012000002111E-2</v>
       </c>
+      <c r="G103">
+        <f t="shared" si="2"/>
+        <v>4.2373560000004314E-2</v>
+      </c>
       <c r="I103">
         <v>102</v>
       </c>
@@ -12499,6 +8636,10 @@
       <c r="F104">
         <v>4.2963365999999038E-2</v>
       </c>
+      <c r="G104">
+        <f t="shared" si="2"/>
+        <v>4.4019253999999244E-2</v>
+      </c>
       <c r="I104">
         <v>103</v>
       </c>
@@ -12529,6 +8670,10 @@
       <c r="F105">
         <v>4.4835349000001093E-2</v>
       </c>
+      <c r="G105">
+        <f t="shared" si="2"/>
+        <v>4.5920014000000155E-2</v>
+      </c>
       <c r="I105">
         <v>104</v>
       </c>
@@ -12559,6 +8704,10 @@
       <c r="F106">
         <v>4.6484033000003248E-2</v>
       </c>
+      <c r="G106">
+        <f t="shared" si="2"/>
+        <v>4.7618940000003815E-2</v>
+      </c>
       <c r="I106">
         <v>105</v>
       </c>
@@ -12589,6 +8738,10 @@
       <c r="F107">
         <v>4.8670326999995267E-2</v>
       </c>
+      <c r="G107">
+        <f t="shared" si="2"/>
+        <v>4.9884002999992842E-2</v>
+      </c>
       <c r="I107">
         <v>106</v>
       </c>
@@ -12619,6 +8772,10 @@
       <c r="F108">
         <v>5.0435258999996221E-2</v>
       </c>
+      <c r="G108">
+        <f t="shared" si="2"/>
+        <v>5.1629174999994802E-2</v>
+      </c>
       <c r="I108">
         <v>107</v>
       </c>
@@ -12649,6 +8806,10 @@
       <c r="F109">
         <v>5.3223023000007287E-2</v>
       </c>
+      <c r="G109">
+        <f t="shared" si="2"/>
+        <v>5.4456936000003682E-2</v>
+      </c>
       <c r="I109">
         <v>108</v>
       </c>
@@ -12679,6 +8840,10 @@
       <c r="F110">
         <v>5.4361362000005332E-2</v>
       </c>
+      <c r="G110">
+        <f t="shared" si="2"/>
+        <v>5.5601067999999719E-2</v>
+      </c>
       <c r="I110">
         <v>109</v>
       </c>
@@ -12709,6 +8874,10 @@
       <c r="F111">
         <v>5.7009685000009538E-2</v>
       </c>
+      <c r="G111">
+        <f t="shared" si="2"/>
+        <v>5.8283634000011943E-2</v>
+      </c>
       <c r="I111">
         <v>110</v>
       </c>
@@ -12739,6 +8908,10 @@
       <c r="F112">
         <v>5.8664040999992721E-2</v>
       </c>
+      <c r="G112">
+        <f t="shared" si="2"/>
+        <v>5.995906699998841E-2</v>
+      </c>
       <c r="I112">
         <v>111</v>
       </c>
@@ -12769,6 +8942,10 @@
       <c r="F113">
         <v>6.0691979999998008E-2</v>
       </c>
+      <c r="G113">
+        <f t="shared" si="2"/>
+        <v>6.200621099998898E-2</v>
+      </c>
       <c r="I113">
         <v>112</v>
       </c>
@@ -12799,6 +8976,10 @@
       <c r="F114">
         <v>6.2811669999996406E-2</v>
       </c>
+      <c r="G114">
+        <f t="shared" si="2"/>
+        <v>6.4165484999990668E-2</v>
+      </c>
       <c r="I114">
         <v>113</v>
       </c>
@@ -12829,6 +9010,10 @@
       <c r="F115">
         <v>6.5317125000013909E-2</v>
       </c>
+      <c r="G115">
+        <f t="shared" si="2"/>
+        <v>6.6663992000018199E-2</v>
+      </c>
       <c r="I115">
         <v>114</v>
       </c>
@@ -12859,6 +9044,10 @@
       <c r="F116">
         <v>6.7541482999994282E-2</v>
       </c>
+      <c r="G116">
+        <f t="shared" si="2"/>
+        <v>6.8928525999988319E-2</v>
+      </c>
       <c r="I116">
         <v>115</v>
       </c>
@@ -12889,6 +9078,10 @@
       <c r="F117">
         <v>7.0023589999996153E-2</v>
       </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>7.1394633999993865E-2</v>
+      </c>
       <c r="I117">
         <v>116</v>
       </c>
@@ -12919,6 +9112,10 @@
       <c r="F118">
         <v>7.2586516999999726E-2</v>
       </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>7.3982019000004576E-2</v>
+      </c>
       <c r="I118">
         <v>117</v>
       </c>
@@ -12949,6 +9146,10 @@
       <c r="F119">
         <v>7.5905604999996962E-2</v>
       </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>7.7312935999990479E-2</v>
+      </c>
       <c r="I119">
         <v>118</v>
       </c>
@@ -12979,6 +9180,10 @@
       <c r="F120">
         <v>7.7841457999996921E-2</v>
       </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>7.929299300000367E-2</v>
+      </c>
       <c r="I120">
         <v>119</v>
       </c>
@@ -13009,6 +9214,10 @@
       <c r="F121">
         <v>8.1258020999996461E-2</v>
       </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>8.2766265999996452E-2</v>
+      </c>
       <c r="I121">
         <v>120</v>
       </c>
@@ -13039,6 +9248,10 @@
       <c r="F122">
         <v>8.3620418999994395E-2</v>
       </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>8.5140278999998598E-2</v>
+      </c>
       <c r="I122">
         <v>121</v>
       </c>
@@ -13069,6 +9282,10 @@
       <c r="F123">
         <v>8.666170999999849E-2</v>
       </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>8.8207831000004261E-2</v>
+      </c>
       <c r="I123">
         <v>122</v>
       </c>
@@ -13099,6 +9316,10 @@
       <c r="F124">
         <v>8.9834564000007056E-2</v>
       </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>9.141642400001275E-2</v>
+      </c>
       <c r="I124">
         <v>123</v>
       </c>
@@ -13129,6 +9350,10 @@
       <c r="F125">
         <v>9.3154399999996251E-2</v>
       </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>9.4748543999980936E-2</v>
+      </c>
       <c r="I125">
         <v>124</v>
       </c>
@@ -13159,6 +9384,10 @@
       <c r="F126">
         <v>9.6524473000010852E-2</v>
       </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>9.8158321000016702E-2</v>
+      </c>
       <c r="I126">
         <v>125</v>
       </c>
@@ -13189,6 +9418,10 @@
       <c r="F127">
         <v>0.100581636000004</v>
       </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>0.10224345000000996</v>
+      </c>
       <c r="I127">
         <v>126</v>
       </c>
@@ -13219,6 +9452,10 @@
       <c r="F128">
         <v>0.1039052280000055</v>
       </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>0.10558840400000004</v>
+      </c>
       <c r="I128">
         <v>127</v>
       </c>
@@ -13249,6 +9486,10 @@
       <c r="F129">
         <v>0.10676047099998411</v>
       </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>0.10845242499997763</v>
+      </c>
       <c r="I129">
         <v>128</v>
       </c>
@@ -13279,6 +9520,10 @@
       <c r="F130">
         <v>0.11062224600000491</v>
       </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>0.11233667400000513</v>
+      </c>
       <c r="I130">
         <v>129</v>
       </c>
@@ -13309,6 +9554,10 @@
       <c r="F131">
         <v>0.1141673580000088</v>
       </c>
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>0.11591526800001475</v>
+      </c>
       <c r="I131">
         <v>130</v>
       </c>
@@ -13339,6 +9588,10 @@
       <c r="F132">
         <v>0.11836721499998699</v>
       </c>
+      <c r="G132">
+        <f t="shared" ref="G132:G152" si="4">E132+F132</f>
+        <v>0.12013280099998606</v>
+      </c>
       <c r="I132">
         <v>131</v>
       </c>
@@ -13349,7 +9602,7 @@
         <v>0.31764444099999772</v>
       </c>
       <c r="L132">
-        <f t="shared" ref="L132:L181" si="4">J132+K132</f>
+        <f t="shared" ref="L132:L181" si="5">J132+K132</f>
         <v>0.31979829699999079</v>
       </c>
     </row>
@@ -13369,6 +9622,10 @@
       <c r="F133">
         <v>0.12268618899999641</v>
       </c>
+      <c r="G133">
+        <f t="shared" si="4"/>
+        <v>0.12448824300000527</v>
+      </c>
       <c r="I133">
         <v>132</v>
       </c>
@@ -13379,7 +9636,7 @@
         <v>0.32828859699999607</v>
       </c>
       <c r="L133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.33048457799998454</v>
       </c>
     </row>
@@ -13399,6 +9656,10 @@
       <c r="F134">
         <v>0.12689053900000999</v>
       </c>
+      <c r="G134">
+        <f t="shared" si="4"/>
+        <v>0.12868337699999755</v>
+      </c>
       <c r="I134">
         <v>133</v>
       </c>
@@ -13409,7 +9670,7 @@
         <v>0.33790881200000278</v>
       </c>
       <c r="L134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.34021718100000947</v>
       </c>
     </row>
@@ -13429,6 +9690,10 @@
       <c r="F135">
         <v>0.1309928970000078</v>
       </c>
+      <c r="G135">
+        <f t="shared" si="4"/>
+        <v>0.13281358800002635</v>
+      </c>
       <c r="I135">
         <v>134</v>
       </c>
@@ -13439,7 +9704,7 @@
         <v>0.34823114800000438</v>
       </c>
       <c r="L135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.35064735100000005</v>
       </c>
     </row>
@@ -13459,6 +9724,10 @@
       <c r="F136">
         <v>0.1352810069999964</v>
       </c>
+      <c r="G136">
+        <f t="shared" si="4"/>
+        <v>0.13714506799999526</v>
+      </c>
       <c r="I136">
         <v>135</v>
       </c>
@@ -13469,7 +9738,7 @@
         <v>0.3590828210000086</v>
       </c>
       <c r="L136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36158957100001315</v>
       </c>
     </row>
@@ -13489,6 +9758,10 @@
       <c r="F137">
         <v>0.13961344400000139</v>
       </c>
+      <c r="G137">
+        <f t="shared" si="4"/>
+        <v>0.14150057000000738</v>
+      </c>
       <c r="I137">
         <v>136</v>
       </c>
@@ -13499,7 +9772,7 @@
         <v>0.37049918500000562</v>
       </c>
       <c r="L137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.37298144800000732</v>
       </c>
     </row>
@@ -13519,6 +9792,10 @@
       <c r="F138">
         <v>0.14505257699999449</v>
       </c>
+      <c r="G138">
+        <f t="shared" si="4"/>
+        <v>0.14696418099998712</v>
+      </c>
       <c r="I138">
         <v>137</v>
       </c>
@@ -13529,7 +9806,7 @@
         <v>0.38420794600000141</v>
       </c>
       <c r="L138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.38662318499998727</v>
       </c>
     </row>
@@ -13549,6 +9826,10 @@
       <c r="F139">
         <v>0.149505444000024</v>
       </c>
+      <c r="G139">
+        <f t="shared" si="4"/>
+        <v>0.15143454500001324</v>
+      </c>
       <c r="I139">
         <v>138</v>
       </c>
@@ -13559,7 +9840,7 @@
         <v>0.39440463999999342</v>
       </c>
       <c r="L139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39689957300000744</v>
       </c>
     </row>
@@ -13579,6 +9860,10 @@
       <c r="F140">
         <v>0.1538767670000129</v>
       </c>
+      <c r="G140">
+        <f t="shared" si="4"/>
+        <v>0.15586527900001554</v>
+      </c>
       <c r="I140">
         <v>139</v>
       </c>
@@ -13589,7 +9874,7 @@
         <v>0.40562966899999081</v>
       </c>
       <c r="L140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.40814815399999815</v>
       </c>
     </row>
@@ -13609,6 +9894,10 @@
       <c r="F141">
         <v>0.1592529219999915</v>
       </c>
+      <c r="G141">
+        <f t="shared" si="4"/>
+        <v>0.1612456510000061</v>
+      </c>
       <c r="I141">
         <v>140</v>
       </c>
@@ -13619,7 +9908,7 @@
         <v>0.41785114400001022</v>
       </c>
       <c r="L141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4204058850000047</v>
       </c>
     </row>
@@ -13639,6 +9928,10 @@
       <c r="F142">
         <v>0.1636692920000041</v>
       </c>
+      <c r="G142">
+        <f t="shared" si="4"/>
+        <v>0.16567051699998497</v>
+      </c>
       <c r="I142">
         <v>141</v>
       </c>
@@ -13649,7 +9942,7 @@
         <v>0.42885215000000698</v>
       </c>
       <c r="L142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.43143575800000689</v>
       </c>
     </row>
@@ -13669,6 +9962,10 @@
       <c r="F143">
         <v>0.1694552549999935</v>
       </c>
+      <c r="G143">
+        <f t="shared" si="4"/>
+        <v>0.17152366399998301</v>
+      </c>
       <c r="I143">
         <v>142</v>
       </c>
@@ -13679,7 +9976,7 @@
         <v>0.4444933419999802</v>
       </c>
       <c r="L143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.44713998599997923</v>
       </c>
     </row>
@@ -13699,6 +9996,10 @@
       <c r="F144">
         <v>0.17440057699996939</v>
       </c>
+      <c r="G144">
+        <f t="shared" si="4"/>
+        <v>0.1765186259999518</v>
+      </c>
       <c r="I144">
         <v>143</v>
       </c>
@@ -13709,7 +10010,7 @@
         <v>0.454968739000019</v>
       </c>
       <c r="L144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.45756381500004861</v>
       </c>
     </row>
@@ -13729,6 +10030,10 @@
       <c r="F145">
         <v>0.18005479299997659</v>
       </c>
+      <c r="G145">
+        <f t="shared" si="4"/>
+        <v>0.18214252299997952</v>
+      </c>
       <c r="I145">
         <v>144</v>
       </c>
@@ -13739,7 +10044,7 @@
         <v>0.46801948199999521</v>
       </c>
       <c r="L145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.47066506899996974</v>
       </c>
     </row>
@@ -13759,6 +10064,10 @@
       <c r="F146">
         <v>0.1849856080000063</v>
       </c>
+      <c r="G146">
+        <f t="shared" si="4"/>
+        <v>0.18709700200001858</v>
+      </c>
       <c r="I146">
         <v>145</v>
       </c>
@@ -13769,7 +10078,7 @@
         <v>0.48134187200000272</v>
       </c>
       <c r="L146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.4840464609999981</v>
       </c>
     </row>
@@ -13789,6 +10098,10 @@
       <c r="F147">
         <v>0.19106748699999121</v>
       </c>
+      <c r="G147">
+        <f t="shared" si="4"/>
+        <v>0.19318989699998843</v>
+      </c>
       <c r="I147">
         <v>146</v>
       </c>
@@ -13799,7 +10112,7 @@
         <v>0.49617626100001422</v>
       </c>
       <c r="L147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.49890651099999567</v>
       </c>
     </row>
@@ -13819,6 +10132,10 @@
       <c r="F148">
         <v>0.19598635900000769</v>
       </c>
+      <c r="G148">
+        <f t="shared" si="4"/>
+        <v>0.19813089899999337</v>
+      </c>
       <c r="I148">
         <v>147</v>
       </c>
@@ -13829,7 +10146,7 @@
         <v>0.5098985779999794</v>
       </c>
       <c r="L148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.51269487599998231</v>
       </c>
     </row>
@@ -13849,6 +10166,10 @@
       <c r="F149">
         <v>0.2022086580000132</v>
       </c>
+      <c r="G149">
+        <f t="shared" si="4"/>
+        <v>0.20441810900003929</v>
+      </c>
       <c r="I149">
         <v>148</v>
       </c>
@@ -13859,7 +10180,7 @@
         <v>0.52476241399998802</v>
       </c>
       <c r="L149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.52752136499995694</v>
       </c>
     </row>
@@ -13879,6 +10200,10 @@
       <c r="F150">
         <v>0.20868604099997809</v>
       </c>
+      <c r="G150">
+        <f t="shared" si="4"/>
+        <v>0.2109347009999783</v>
+      </c>
       <c r="I150">
         <v>149</v>
       </c>
@@ -13889,7 +10214,7 @@
         <v>0.53940797799996287</v>
       </c>
       <c r="L150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.54222068699996728</v>
       </c>
     </row>
@@ -13909,6 +10234,10 @@
       <c r="F151">
         <v>0.21687181200000849</v>
       </c>
+      <c r="G151">
+        <f t="shared" si="4"/>
+        <v>0.21920853200002055</v>
+      </c>
       <c r="I151">
         <v>150</v>
       </c>
@@ -13919,7 +10248,7 @@
         <v>0.55659228200000599</v>
       </c>
       <c r="L151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55945365700004912</v>
       </c>
     </row>
@@ -13939,6 +10268,10 @@
       <c r="F152">
         <v>0.22165371100002629</v>
       </c>
+      <c r="G152">
+        <f t="shared" si="4"/>
+        <v>0.22401621700003033</v>
+      </c>
       <c r="I152">
         <v>151</v>
       </c>
@@ -13949,181 +10282,181 @@
         <v>0.56982683700001413</v>
       </c>
       <c r="L152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.57272569200001722</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
